--- a/SP_Sklad/Rep/MatOut.xlsx
+++ b/SP_Sklad/Rep/MatOut.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$N$24</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$N$26</definedName>
     <definedName name="MatOutDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>кг.</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Яловичина 2с.</t>
   </si>
   <si>
     <t>Разом по катогорії:</t>
@@ -1116,8 +1122,8 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>CONCATENATE("з "&amp;"01.07.2016"," по "&amp;"30.09.2016")</f>
-        <v>з 01.07.2016 по 30.09.2016</v>
+        <f>CONCATENATE("з "&amp;"01.09.2015"," по "&amp;"30.09.2016")</f>
+        <v>з 01.09.2015 по 30.09.2016</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -1307,123 +1313,119 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41">
-        <f>SUM(H13)</f>
+      <c r="D14" s="29">
+        <v>42620.980804942126</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="33">
         <v>2</v>
       </c>
-      <c r="I14" s="42">
-        <f>SUM(I13)</f>
-        <v>30</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="41">
-        <f>SUM(K13)</f>
+      <c r="I14" s="34">
+        <v>112</v>
+      </c>
+      <c r="J14" s="35">
+        <f>IF(H14&gt;0,I14/H14," ")</f>
+        <v>56</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="36" t="str">
+        <f>IF(K14&gt;0,L14/K14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N14" s="37">
+        <f>H14-K14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41">
+        <f>SUM(H13:H14)</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="42">
+        <f>SUM(I13:I14)</f>
+        <v>142</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="41">
+        <f>SUM(K13:K14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="42">
-        <f>SUM(L13)</f>
+      <c r="L15" s="42">
+        <f>SUM(L13:L14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43">
-        <f>SUM(N13)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43">
+        <f>SUM(N13:N14)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17">
-      <c r="B17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="29">
-        <v>42556.038348726848</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="33">
-        <v>3</v>
-      </c>
-      <c r="I17" s="34">
-        <v>31.800000000000001</v>
-      </c>
-      <c r="J17" s="35">
-        <f>IF(H17&gt;0,I17/H17," ")</f>
-        <v>10.6</v>
-      </c>
-      <c r="K17" s="33">
-        <v>2</v>
-      </c>
-      <c r="L17" s="34">
-        <v>21.199999999999999</v>
-      </c>
-      <c r="M17" s="36">
-        <f>IF(K17&gt;0,L17/K17," ")</f>
-        <v>10.6</v>
-      </c>
-      <c r="N17" s="37">
-        <f>H17-K17</f>
-        <v>1</v>
-      </c>
+      <c r="B17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18">
       <c r="B18" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="29">
-        <v>42556.042982326384</v>
+        <v>42556.038348726848</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="32" t="s">
@@ -1433,151 +1435,155 @@
         <v>3</v>
       </c>
       <c r="I18" s="34">
-        <v>3.1800000000000002</v>
+        <v>31.800000000000001</v>
       </c>
       <c r="J18" s="35">
         <f>IF(H18&gt;0,I18/H18," ")</f>
-        <v>1.0600000000000001</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="36" t="str">
+        <v>10.6</v>
+      </c>
+      <c r="K18" s="33">
+        <v>2</v>
+      </c>
+      <c r="L18" s="34">
+        <v>21.199999999999999</v>
+      </c>
+      <c r="M18" s="36">
         <f>IF(K18&gt;0,L18/K18," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>10.6</v>
       </c>
       <c r="N18" s="37">
         <f>H18-K18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="29">
+        <v>42556.042982326384</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41">
-        <f>SUM(H17:H18)</f>
+      <c r="I19" s="34">
+        <v>3.1800000000000002</v>
+      </c>
+      <c r="J19" s="35">
+        <f>IF(H19&gt;0,I19/H19," ")</f>
+        <v>1.0600000000000001</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="36" t="str">
+        <f>IF(K19&gt;0,L19/K19," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N19" s="37">
+        <f>H19-K19</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41">
+        <f>SUM(H18:H19)</f>
         <v>6</v>
       </c>
-      <c r="I19" s="42">
-        <f>SUM(I17:I18)</f>
+      <c r="I20" s="42">
+        <f>SUM(I18:I19)</f>
         <v>34.980000000000004</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="41">
-        <f>SUM(K17:K18)</f>
+      <c r="J20" s="42"/>
+      <c r="K20" s="41">
+        <f>SUM(K18:K19)</f>
         <v>2</v>
       </c>
-      <c r="L19" s="42">
-        <f>SUM(L17:L18)</f>
+      <c r="L20" s="42">
+        <f>SUM(L18:L19)</f>
         <v>21.199999999999999</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43">
-        <f>SUM(N17:N18)</f>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43">
+        <f>SUM(N18:N19)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-    </row>
     <row r="21">
-      <c r="B21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22">
-      <c r="B22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="29">
-        <v>42612.391635381944</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="B22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="33">
-        <v>5</v>
-      </c>
-      <c r="I22" s="34">
-        <v>50</v>
-      </c>
-      <c r="J22" s="35">
-        <f>IF(H22&gt;0,I22/H22," ")</f>
-        <v>10</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="36" t="str">
-        <f>IF(K22&gt;0,L22/K22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N22" s="37">
-        <f>H22-K22</f>
-        <v>5</v>
-      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23">
       <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" s="29">
         <v>42612.391635381944</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="32" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" s="34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J23" s="35">
         <f>IF(H23&gt;0,I23/H23," ")</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="34"/>
@@ -1587,142 +1593,216 @@
       </c>
       <c r="N23" s="37">
         <f>H23-K23</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="29">
+        <v>42612.391635381944</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41">
-        <f>SUM(H22:H23)</f>
+      <c r="I24" s="34">
+        <v>40</v>
+      </c>
+      <c r="J24" s="35">
+        <f>IF(H24&gt;0,I24/H24," ")</f>
+        <v>40</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="36" t="str">
+        <f>IF(K24&gt;0,L24/K24," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N24" s="37">
+        <f>H24-K24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="29">
+        <v>42612.391635381944</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="34">
         <v>6</v>
       </c>
-      <c r="I24" s="42">
-        <f>SUM(I22:I23)</f>
-        <v>90</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="41">
-        <f>SUM(K22:K23)</f>
+      <c r="J25" s="35">
+        <f>IF(H25&gt;0,I25/H25," ")</f>
+        <v>12</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="36" t="str">
+        <f>IF(K25&gt;0,L25/K25," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N25" s="37">
+        <f>H25-K25</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41">
+        <f>SUM(H23:H25)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I26" s="42">
+        <f>SUM(I23:I25)</f>
+        <v>96</v>
+      </c>
+      <c r="J26" s="42"/>
+      <c r="K26" s="41">
+        <f>SUM(K23:K25)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="42">
-        <f>SUM(L22:L23)</f>
+      <c r="L26" s="42">
+        <f>SUM(L23:L25)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43">
-        <f>SUM(N22:N23)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="48"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53">
-        <v>14</v>
-      </c>
-      <c r="I26" s="53">
-        <v>154.97999999999999</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="53">
+      <c r="M26" s="42"/>
+      <c r="N26" s="43">
+        <f>SUM(N23:N25)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="B28" s="49"/>
+      <c r="C28" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53">
+        <v>16.5</v>
+      </c>
+      <c r="I28" s="53">
+        <v>272.98000000000002</v>
+      </c>
+      <c r="J28" s="54"/>
+      <c r="K28" s="53">
         <v>2</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L28" s="53">
         <v>21.199999999999999</v>
       </c>
-      <c r="M26" s="54"/>
-      <c r="N26" s="55">
-        <f>H26-K26</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55">
+        <f>H28-K28</f>
+        <v>14.5</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
+      <c r="N29" s="59"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="56"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="56"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+    </row>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
     <row r="36" ht="12.75" customHeight="1"/>
@@ -1807,9 +1887,11 @@
     <row r="115" ht="12.75" customHeight="1"/>
     <row r="116" ht="12.75" customHeight="1"/>
     <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B29:G29"/>
+  <mergeCells count="18">
+    <mergeCell ref="B31:G31"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="G9:G10"/>
@@ -1819,12 +1901,14 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B17:N17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:N22"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>

--- a/SP_Sklad/Rep/MatOut.xlsx
+++ b/SP_Sklad/Rep/MatOut.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$N$26</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$N$35</definedName>
     <definedName name="MatOutDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -76,34 +76,43 @@
     <t>Ціна</t>
   </si>
   <si>
-    <t>ФОП Дорогін А.А.</t>
+    <t>Яловичина</t>
   </si>
   <si>
     <t>ВН</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яловичина  1 сотру</t>
+  </si>
+  <si>
+    <t>кг.</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t xml:space="preserve">Яловичина  1 сотру</t>
-  </si>
-  <si>
-    <t>кг.</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Яловичина 2с.</t>
+    <t>54</t>
   </si>
   <si>
     <t>Разом по катогорії:</t>
   </si>
   <si>
-    <t>ФОП Асеева</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t xml:space="preserve">Допоміжні матеріали </t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Емульсія свинної шкури</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилка </t>
+  </si>
+  <si>
+    <t>Свинина</t>
   </si>
   <si>
     <t>29</t>
@@ -112,16 +121,22 @@
     <t>Свинина жирна</t>
   </si>
   <si>
-    <t>ФОП Губрієнко( Юра) м.Київ Марка Вовчка(Подольська база)</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>Свинина напівжирна 50/50</t>
   </si>
   <si>
     <t>Свинина не жирна</t>
+  </si>
+  <si>
+    <t>Сало та жири</t>
+  </si>
+  <si>
+    <t>Сало хребтове</t>
+  </si>
+  <si>
+    <t>Конина</t>
+  </si>
+  <si>
+    <t>Мясо конини вищого сорту</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -1282,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="29">
-        <v>42560.910291817127</v>
+        <v>42556.038348726848</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>21</v>
@@ -1292,24 +1307,28 @@
         <v>22</v>
       </c>
       <c r="H13" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="34">
-        <v>30</v>
+        <v>31.800000000000001</v>
       </c>
       <c r="J13" s="35">
         <f>IF(H13&gt;0,I13/H13," ")</f>
-        <v>15</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="36" t="str">
+        <v>10.6</v>
+      </c>
+      <c r="K13" s="33">
+        <v>2</v>
+      </c>
+      <c r="L13" s="34">
+        <v>21.199999999999999</v>
+      </c>
+      <c r="M13" s="36">
         <f>IF(K13&gt;0,L13/K13," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>10.6</v>
       </c>
       <c r="N13" s="37">
         <f>H13-K13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1320,10 +1339,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="29">
-        <v>42620.980804942126</v>
+        <v>42560.910291817127</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="32" t="s">
@@ -1333,11 +1352,11 @@
         <v>2</v>
       </c>
       <c r="I14" s="34">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="J14" s="35">
         <f>IF(H14&gt;0,I14/H14," ")</f>
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="34"/>
@@ -1351,137 +1370,133 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="29">
+        <v>42612.391635381944</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="34">
+        <v>6</v>
+      </c>
+      <c r="J15" s="35">
+        <f>IF(H15&gt;0,I15/H15," ")</f>
+        <v>12</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="36" t="str">
+        <f>IF(K15&gt;0,L15/K15," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N15" s="37">
+        <f>H15-K15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41">
-        <f>SUM(H13:H14)</f>
-        <v>4</v>
-      </c>
-      <c r="I15" s="42">
-        <f>SUM(I13:I14)</f>
-        <v>142</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="41">
-        <f>SUM(K13:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="42">
-        <f>SUM(L13:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43">
-        <f>SUM(N13:N14)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41">
+        <f>SUM(H13:H15)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I16" s="42">
+        <f>SUM(I13:I15)</f>
+        <v>67.799999999999997</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41">
+        <f>SUM(K13:K15)</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="42">
+        <f>SUM(L13:L15)</f>
+        <v>21.199999999999999</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43">
+        <f>SUM(N13:N15)</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="29">
-        <v>42556.038348726848</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="33">
-        <v>3</v>
-      </c>
-      <c r="I18" s="34">
-        <v>31.800000000000001</v>
-      </c>
-      <c r="J18" s="35">
-        <f>IF(H18&gt;0,I18/H18," ")</f>
-        <v>10.6</v>
-      </c>
-      <c r="K18" s="33">
-        <v>2</v>
-      </c>
-      <c r="L18" s="34">
-        <v>21.199999999999999</v>
-      </c>
-      <c r="M18" s="36">
-        <f>IF(K18&gt;0,L18/K18," ")</f>
-        <v>10.6</v>
-      </c>
-      <c r="N18" s="37">
-        <f>H18-K18</f>
-        <v>1</v>
-      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19">
       <c r="B19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="29">
+        <v>42624.50049471065</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="29">
-        <v>42556.042982326384</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>29</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34">
-        <v>3.1800000000000002</v>
+        <v>6</v>
       </c>
       <c r="J19" s="35">
         <f>IF(H19&gt;0,I19/H19," ")</f>
-        <v>1.0600000000000001</v>
+        <v>6</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="34"/>
@@ -1491,110 +1506,110 @@
       </c>
       <c r="N19" s="37">
         <f>H19-K19</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38" t="s">
+      <c r="B20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42624.50049471065</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="33">
+        <v>1</v>
+      </c>
+      <c r="I20" s="34">
+        <v>7</v>
+      </c>
+      <c r="J20" s="35">
+        <f>IF(H20&gt;0,I20/H20," ")</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="36" t="str">
+        <f>IF(K20&gt;0,L20/K20," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N20" s="37">
+        <f>H20-K20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41">
-        <f>SUM(H18:H19)</f>
-        <v>6</v>
-      </c>
-      <c r="I20" s="42">
-        <f>SUM(I18:I19)</f>
-        <v>34.980000000000004</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="41">
-        <f>SUM(K18:K19)</f>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41">
+        <f>SUM(H19:H20)</f>
         <v>2</v>
       </c>
-      <c r="L20" s="42">
-        <f>SUM(L18:L19)</f>
-        <v>21.199999999999999</v>
-      </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43">
-        <f>SUM(N18:N19)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
+      <c r="I21" s="42">
+        <f>SUM(I19:I20)</f>
+        <v>13</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41">
+        <f>SUM(K19:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="42">
+        <f>SUM(L19:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43">
+        <f>SUM(N19:N20)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="29">
-        <v>42612.391635381944</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="33">
-        <v>5</v>
-      </c>
-      <c r="I23" s="34">
-        <v>50</v>
-      </c>
-      <c r="J23" s="35">
-        <f>IF(H23&gt;0,I23/H23," ")</f>
-        <v>10</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="36" t="str">
-        <f>IF(K23&gt;0,L23/K23," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N23" s="37">
-        <f>H23-K23</f>
-        <v>5</v>
-      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24">
       <c r="B24" s="27" t="s">
@@ -1604,24 +1619,24 @@
         <v>31</v>
       </c>
       <c r="D24" s="29">
-        <v>42612.391635381944</v>
+        <v>42556.042982326384</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="32" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="34">
-        <v>40</v>
+        <v>3.1800000000000002</v>
       </c>
       <c r="J24" s="35">
         <f>IF(H24&gt;0,I24/H24," ")</f>
-        <v>40</v>
+        <v>1.0600000000000001</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="34"/>
@@ -1631,7 +1646,7 @@
       </c>
       <c r="N24" s="37">
         <f>H24-K24</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1639,27 +1654,27 @@
         <v>19</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D25" s="29">
         <v>42612.391635381944</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="32" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="33">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I25" s="34">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J25" s="35">
         <f>IF(H25&gt;0,I25/H25," ")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="34"/>
@@ -1669,149 +1684,382 @@
       </c>
       <c r="N25" s="37">
         <f>H25-K25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="29">
+        <v>42612.391635381944</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="33">
+        <v>1</v>
+      </c>
+      <c r="I26" s="34">
+        <v>40</v>
+      </c>
+      <c r="J26" s="35">
+        <f>IF(H26&gt;0,I26/H26," ")</f>
+        <v>40</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="36" t="str">
+        <f>IF(K26&gt;0,L26/K26," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N26" s="37">
+        <f>H26-K26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41">
+        <f>SUM(H24:H26)</f>
+        <v>9</v>
+      </c>
+      <c r="I27" s="42">
+        <f>SUM(I24:I26)</f>
+        <v>93.180000000000007</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="41">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="42">
+        <f>SUM(L24:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43">
+        <f>SUM(N24:N26)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="29">
+        <v>42624.50049471065</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38" t="s">
+      <c r="I30" s="34">
+        <v>2</v>
+      </c>
+      <c r="J30" s="35">
+        <f>IF(H30&gt;0,I30/H30," ")</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="36" t="str">
+        <f>IF(K30&gt;0,L30/K30," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N30" s="37">
+        <f>H30-K30</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41">
-        <f>SUM(H23:H25)</f>
-        <v>6.5</v>
-      </c>
-      <c r="I26" s="42">
-        <f>SUM(I23:I25)</f>
-        <v>96</v>
-      </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="41">
-        <f>SUM(K23:K25)</f>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41">
+        <f>SUM(H30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="42">
+        <f>SUM(I30)</f>
+        <v>2</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="41">
+        <f>SUM(K30)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="42">
-        <f>SUM(L23:L25)</f>
+      <c r="L31" s="42">
+        <f>SUM(L30)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43">
-        <f>SUM(N23:N25)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53">
-        <v>16.5</v>
-      </c>
-      <c r="I28" s="53">
-        <v>272.98000000000002</v>
-      </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="53">
+      <c r="M31" s="42"/>
+      <c r="N31" s="43">
+        <f>SUM(N30)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="29">
+        <v>42624.50049471065</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="33">
+        <v>1</v>
+      </c>
+      <c r="I34" s="34">
+        <v>5</v>
+      </c>
+      <c r="J34" s="35">
+        <f>IF(H34&gt;0,I34/H34," ")</f>
+        <v>5</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="36" t="str">
+        <f>IF(K34&gt;0,L34/K34," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N34" s="37">
+        <f>H34-K34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41">
+        <f>SUM(H34)</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="42">
+        <f>SUM(I34)</f>
+        <v>5</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="41">
+        <f>SUM(K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="42">
+        <f>SUM(L34)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="42"/>
+      <c r="N35" s="43">
+        <f>SUM(N34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="B37" s="49"/>
+      <c r="C37" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53">
+        <v>18</v>
+      </c>
+      <c r="I37" s="53">
+        <v>180.97999999999999</v>
+      </c>
+      <c r="J37" s="54"/>
+      <c r="K37" s="53">
         <v>2</v>
       </c>
-      <c r="L28" s="53">
+      <c r="L37" s="53">
         <v>21.199999999999999</v>
       </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="55">
-        <f>H28-K28</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="56"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55">
+        <f>H37-K37</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="59"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="56"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+    </row>
     <row r="43" ht="12.75" customHeight="1"/>
     <row r="44" ht="12.75" customHeight="1"/>
     <row r="45" ht="12.75" customHeight="1"/>
@@ -1889,9 +2137,18 @@
     <row r="117" ht="12.75" customHeight="1"/>
     <row r="118" ht="12.75" customHeight="1"/>
     <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B31:G31"/>
+  <mergeCells count="23">
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="G9:G10"/>
@@ -1902,13 +2159,18 @@
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B18:N18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B23:N23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
